--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H2">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I2">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J2">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.095195666666667</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N2">
-        <v>6.285587</v>
+        <v>0.227425</v>
       </c>
       <c r="O2">
-        <v>0.8546922300706357</v>
+        <v>0.028190957994264</v>
       </c>
       <c r="P2">
-        <v>0.8546922300706358</v>
+        <v>0.02819095799426401</v>
       </c>
       <c r="Q2">
-        <v>313.5593590563023</v>
+        <v>0.2067660415027777</v>
       </c>
       <c r="R2">
-        <v>2822.034231506721</v>
+        <v>1.860894373525</v>
       </c>
       <c r="S2">
-        <v>0.5060941062373749</v>
+        <v>0.0008728060009946141</v>
       </c>
       <c r="T2">
-        <v>0.5060941062373751</v>
+        <v>0.0008728060009946143</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H3">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I3">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J3">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.356208</v>
+        <v>2.095195666666667</v>
       </c>
       <c r="N3">
-        <v>1.068624</v>
+        <v>6.285587</v>
       </c>
       <c r="O3">
-        <v>0.1453077699293643</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="P3">
-        <v>0.1453077699293643</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="Q3">
-        <v>53.30879303908799</v>
+        <v>5.714613356101222</v>
       </c>
       <c r="R3">
-        <v>479.779137351792</v>
+        <v>51.431520204911</v>
       </c>
       <c r="S3">
-        <v>0.08604197319738134</v>
+        <v>0.02412266924644931</v>
       </c>
       <c r="T3">
-        <v>0.08604197319738136</v>
+        <v>0.02412266924644931</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.73412466666667</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H4">
-        <v>158.202374</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I4">
-        <v>0.208649853730866</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J4">
-        <v>0.2086498537308661</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.095195666666667</v>
+        <v>0.5180969999999999</v>
       </c>
       <c r="N4">
-        <v>6.285587</v>
+        <v>1.554291</v>
       </c>
       <c r="O4">
-        <v>0.8546922300706357</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="P4">
-        <v>0.8546922300706358</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="Q4">
-        <v>110.4883094870598</v>
+        <v>1.413101450647</v>
       </c>
       <c r="R4">
-        <v>994.3947853835382</v>
+        <v>12.717913055823</v>
       </c>
       <c r="S4">
-        <v>0.1783314087891458</v>
+        <v>0.005965019290279958</v>
       </c>
       <c r="T4">
-        <v>0.1783314087891459</v>
+        <v>0.00596501929027996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J5">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.356208</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N5">
-        <v>1.068624</v>
+        <v>0.227425</v>
       </c>
       <c r="O5">
-        <v>0.1453077699293643</v>
+        <v>0.028190957994264</v>
       </c>
       <c r="P5">
-        <v>0.1453077699293643</v>
+        <v>0.02819095799426401</v>
       </c>
       <c r="Q5">
-        <v>18.784317079264</v>
+        <v>3.997686100772222</v>
       </c>
       <c r="R5">
-        <v>169.058853713376</v>
+        <v>35.97917490694999</v>
       </c>
       <c r="S5">
-        <v>0.03031844494172019</v>
+        <v>0.01687513284815621</v>
       </c>
       <c r="T5">
-        <v>0.03031844494172019</v>
+        <v>0.01687513284815621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.34932566666667</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H6">
-        <v>151.047977</v>
+        <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.1992140668343777</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J6">
-        <v>0.1992140668343777</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>6.285587</v>
       </c>
       <c r="O6">
-        <v>0.8546922300706357</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="P6">
-        <v>0.8546922300706358</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="Q6">
-        <v>105.4916889563888</v>
+        <v>110.4883094870598</v>
       </c>
       <c r="R6">
-        <v>949.4252006074991</v>
+        <v>994.3947853835379</v>
       </c>
       <c r="S6">
-        <v>0.1702667150441149</v>
+        <v>0.46639602354026</v>
       </c>
       <c r="T6">
-        <v>0.1702667150441149</v>
+        <v>0.46639602354026</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,46 +844,232 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.34932566666667</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H7">
-        <v>151.047977</v>
+        <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.1992140668343777</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J7">
-        <v>0.1992140668343777</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.356208</v>
+        <v>0.5180969999999999</v>
       </c>
       <c r="N7">
-        <v>1.068624</v>
+        <v>1.554291</v>
       </c>
       <c r="O7">
-        <v>0.1453077699293643</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="P7">
-        <v>0.1453077699293643</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="Q7">
-        <v>17.934832597072</v>
+        <v>27.32139178742599</v>
       </c>
       <c r="R7">
-        <v>161.413493373648</v>
+        <v>245.892526086834</v>
       </c>
       <c r="S7">
-        <v>0.02894735179026275</v>
+        <v>0.1153297443539345</v>
       </c>
       <c r="T7">
-        <v>0.02894735179026275</v>
+        <v>0.1153297443539345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>32.63402300000001</v>
+      </c>
+      <c r="H8">
+        <v>97.90206900000001</v>
+      </c>
+      <c r="I8">
+        <v>0.3704386047199253</v>
+      </c>
+      <c r="J8">
+        <v>0.3704386047199253</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07580833333333332</v>
+      </c>
+      <c r="N8">
+        <v>0.227425</v>
+      </c>
+      <c r="O8">
+        <v>0.028190957994264</v>
+      </c>
+      <c r="P8">
+        <v>0.02819095799426401</v>
+      </c>
+      <c r="Q8">
+        <v>2.473930893591667</v>
+      </c>
+      <c r="R8">
+        <v>22.265378042325</v>
+      </c>
+      <c r="S8">
+        <v>0.01044301914511318</v>
+      </c>
+      <c r="T8">
+        <v>0.01044301914511318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>32.63402300000001</v>
+      </c>
+      <c r="H9">
+        <v>97.90206900000001</v>
+      </c>
+      <c r="I9">
+        <v>0.3704386047199253</v>
+      </c>
+      <c r="J9">
+        <v>0.3704386047199253</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.095195666666667</v>
+      </c>
+      <c r="N9">
+        <v>6.285587</v>
+      </c>
+      <c r="O9">
+        <v>0.7791435378093522</v>
+      </c>
+      <c r="P9">
+        <v>0.7791435378093522</v>
+      </c>
+      <c r="Q9">
+        <v>68.37466357550035</v>
+      </c>
+      <c r="R9">
+        <v>615.371972179503</v>
+      </c>
+      <c r="S9">
+        <v>0.2886248450226428</v>
+      </c>
+      <c r="T9">
+        <v>0.2886248450226428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>32.63402300000001</v>
+      </c>
+      <c r="H10">
+        <v>97.90206900000001</v>
+      </c>
+      <c r="I10">
+        <v>0.3704386047199253</v>
+      </c>
+      <c r="J10">
+        <v>0.3704386047199253</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5180969999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.554291</v>
+      </c>
+      <c r="O10">
+        <v>0.1926655041963838</v>
+      </c>
+      <c r="P10">
+        <v>0.1926655041963838</v>
+      </c>
+      <c r="Q10">
+        <v>16.907589414231</v>
+      </c>
+      <c r="R10">
+        <v>152.168304728079</v>
+      </c>
+      <c r="S10">
+        <v>0.07137074055216933</v>
+      </c>
+      <c r="T10">
+        <v>0.07137074055216934</v>
       </c>
     </row>
   </sheetData>
